--- a/Table 4a Schedules/AHU 2_Table4a.xlsx
+++ b/Table 4a Schedules/AHU 2_Table4a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushikesh/Documents/PsychroCalc/Table 4a Schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D34DD4-9704-3545-A603-D143A087A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B084B68D-5F65-D840-B915-4B33D828F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{640E5C9F-2958-0E4A-8477-45FCBA9FE001}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{16F6BD01-A14B-F34E-84C1-6BEA80231083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>ROOM</t>
   </si>
@@ -68,7 +68,13 @@
     <t>AC/HR CFM</t>
   </si>
   <si>
-    <t>1 CFM/SF</t>
+    <t>DUMMY</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>4-A DESIGNATION</t>
@@ -98,19 +104,16 @@
     <t>EA CFM</t>
   </si>
   <si>
-    <t>DUMMY</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>PATIENT ROOM</t>
   </si>
   <si>
     <t>NO REQUIREMENT FOR CONTINUOUS DIRECTIONAL CONTROL</t>
+  </si>
+  <si>
+    <t>BLOOD BANK/TISSURE STORAGE</t>
+  </si>
+  <si>
+    <t>BLOOD DRAW/PHLEBOTOMY</t>
   </si>
 </sst>
 </file>
@@ -164,30 +167,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -662,28 +642,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F55231AA-F5CF-B14E-AF6C-40ADF1BD2A56}" name="AHU 2Table4A" displayName="AHU_2Table4A" ref="A1:S13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:S13" xr:uid="{F55231AA-F5CF-B14E-AF6C-40ADF1BD2A56}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{2C10A690-C9AC-B145-B19F-BA5299CAFDE5}" name="ROOM" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5D5E8FB1-3878-8E4C-A39C-366A6AA4E22A}" name="ROOM #" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{C0718786-4B95-CB48-82E1-0A00FC6646E6}" name="AREA (FT²)" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{610B5F3D-2173-314D-8366-BE06FBADC1EE}" name="HG_x000a_(FT)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{4AE6131C-DB3F-6E49-8A12-5777C730F699}" name="TOTAL AC/HR" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{DC3BB03D-164B-A545-80D3-7A95F256C22A}" name="100%_x000a_EA" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{135A7F91-F55E-6F49-BF0D-F13C0AF07E3A}" name="CRICU_x000a_EA" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{522BC9D5-6F63-5A40-B8F0-1CB1351F9375}" name="LOAD CFM" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{871A533F-9986-7449-BF3F-1993F6DDA073}" name="AC/HR CFM" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{D06EBD0D-61DC-2C40-9036-9435009CD952}" name="1 CFM/SF" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{60F17A37-ADA8-7F4D-BADD-DF857E6966BB}" name="4-A DESIGNATION" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{0158073F-77BE-424A-9533-0E7D2F901BB2}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{58D57615-8FBA-BF47-8B26-9A6E702210D1}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{212F15EB-ABF6-0249-BD3B-242F2342F568}" name="OSA CFM" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{B7BC9ECF-0464-8F40-B169-B0034BE0B2AB}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{0F444837-C81C-234A-9810-EF515CFE69A6}" name="CALCULATED SA CFM" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{31FE3208-CDCF-DC47-B3D8-8D24086082B0}" name="DESIGN SA CFM" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{96028136-59A8-5D47-A951-843960D7754B}" name="RA CFM" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{FB4541D3-68A9-634E-A797-3AA024FD58C7}" name="EA CFM" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E931286-2806-B841-9E4A-35642FC3E4CD}" name="AHU 2Table4A" displayName="AHU_2Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:R13" xr:uid="{4E931286-2806-B841-9E4A-35642FC3E4CD}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{B17D8EA2-3D4E-E549-B840-ECCF3BFDC884}" name="ROOM" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7C1CF311-B2EF-0045-9C60-E9056C15E28B}" name="ROOM #" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FDA79038-8066-CC46-BC85-6F2B3ABA2B53}" name="AREA (FT²)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D6E76091-10CF-E24C-BE8E-DABBD45C46C6}" name="HG_x000a_(FT)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{11BE5CC5-F0E7-1B49-890C-FA27791D4FCC}" name="TOTAL AC/HR" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{CFF066DD-3F4C-3844-9160-5D8BD074912B}" name="100%_x000a_EA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{89A478E4-A4FE-CB41-8284-509EF8B43D20}" name="CRICU_x000a_EA" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{C32954DB-35E2-2A4F-AA64-8CC0A9DDC4E4}" name="LOAD CFM" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{A006210B-19B3-DA48-81EB-3DB8AFE69A88}" name="AC/HR CFM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{C3B25E33-0C77-3C44-A74B-0F3DFA0F6B8C}" name="4-A DESIGNATION" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{CE5AFF54-38AA-AD4A-9585-244B99C5F232}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{1FC1C83B-3A5F-FE42-A2B2-880D1F8B5C9C}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{49368303-C7FC-0344-829F-B690038DBF1E}" name="OSA CFM" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{446C88CC-9ADD-5E4E-9B5D-4743773DB154}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{2EAD65B6-6E7F-AE46-96C9-3144A70A5536}" name="CALCULATED SA CFM" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{7E216AEF-A1E1-EC4C-819E-8612DC20DC91}" name="DESIGN SA CFM" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{4F5A8BD6-FC8F-EE4B-A7D7-1F6DB3A181B6}" name="RA CFM" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{4F6D87E2-958E-BE42-991B-1F81B4D017AF}" name="EA CFM" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD024437-8BA6-794F-A7B3-B784524AE7C3}">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B26582C-CD70-0C46-93C4-E0E36D1E8813}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S13"/>
+      <selection activeCell="J1" sqref="J1:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,19 +982,18 @@
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,45 +1022,42 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1234</v>
       </c>
       <c r="C2" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -1091,116 +1066,110 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10000</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
+      <c r="L2" s="1">
+        <v>2</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
       </c>
       <c r="P2" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="R2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1234</v>
       </c>
       <c r="C3" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>130</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10000</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
+      <c r="L3" s="1">
+        <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <v>200</v>
       </c>
       <c r="P3" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="Q3" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="R3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1234</v>
       </c>
       <c r="C4" s="1">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1209,116 +1178,110 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10000</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
+      <c r="L4" s="1">
+        <v>2</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>300</v>
       </c>
       <c r="P4" s="1">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="1">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="R4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1234</v>
       </c>
       <c r="C5" s="1">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10000</v>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
+      <c r="L5" s="1">
+        <v>2</v>
       </c>
       <c r="M5" s="1">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
         <v>20</v>
       </c>
       <c r="P5" s="1">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="R5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1234</v>
       </c>
       <c r="C6" s="1">
-        <v>10000</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -1327,57 +1290,54 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10000</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
+      <c r="L6" s="1">
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>40</v>
+      </c>
       <c r="P6" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="1">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1234</v>
       </c>
       <c r="C7" s="1">
-        <v>10000</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -1386,116 +1346,110 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10000</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
+      <c r="L7" s="1">
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1">
+        <v>215</v>
       </c>
       <c r="P7" s="1">
-        <v>10000</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="1">
-        <v>10000</v>
+        <v>215</v>
       </c>
       <c r="R7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>1234</v>
       </c>
       <c r="C8" s="1">
-        <v>10000</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10000</v>
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
+      <c r="L8" s="1">
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
       </c>
       <c r="P8" s="1">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>1234</v>
       </c>
       <c r="C9" s="1">
-        <v>10000</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1504,57 +1458,54 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10000</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
+      <c r="L9" s="1">
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>115</v>
       </c>
       <c r="P9" s="1">
-        <v>10000</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="1">
-        <v>10000</v>
+        <v>115</v>
       </c>
       <c r="R9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1234</v>
       </c>
       <c r="C10" s="1">
-        <v>10000</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -1563,57 +1514,54 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10000</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>23</v>
+      <c r="L10" s="1">
+        <v>2</v>
       </c>
       <c r="M10" s="1">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1">
+        <v>260</v>
       </c>
       <c r="P10" s="1">
-        <v>10000</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="1">
-        <v>10000</v>
+        <v>260</v>
       </c>
       <c r="R10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1234</v>
       </c>
       <c r="C11" s="1">
-        <v>10000</v>
+        <v>2347</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -1622,57 +1570,54 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1570</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10000</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
+      <c r="L11" s="1">
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>20</v>
+        <v>790</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2350</v>
       </c>
       <c r="P11" s="1">
-        <v>10000</v>
+        <v>2350</v>
       </c>
       <c r="Q11" s="1">
-        <v>10000</v>
+        <v>2350</v>
       </c>
       <c r="R11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1234</v>
       </c>
       <c r="C12" s="1">
-        <v>10000</v>
+        <v>454</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1681,53 +1626,50 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>310</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6670</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10000</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
+      <c r="L12" s="1">
+        <v>2</v>
       </c>
       <c r="M12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>3340</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <v>455</v>
       </c>
       <c r="P12" s="1">
-        <v>10000</v>
+        <v>455</v>
       </c>
       <c r="Q12" s="1">
-        <v>10000</v>
+        <v>455</v>
       </c>
       <c r="R12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="S12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>110000</v>
+        <v>4063</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1738,21 +1680,20 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>36740</v>
-      </c>
-      <c r="O13" s="1"/>
+      <c r="M13" s="1">
+        <v>1410</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>4085</v>
+      </c>
       <c r="P13" s="1">
-        <v>110000</v>
+        <v>4085</v>
       </c>
       <c r="Q13" s="1">
-        <v>110000</v>
+        <v>4085</v>
       </c>
       <c r="R13" s="1">
-        <v>110000</v>
-      </c>
-      <c r="S13" s="1">
         <v>0</v>
       </c>
     </row>
